--- a/Excel Data/Schneider.xlsx
+++ b/Excel Data/Schneider.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.sylvester\Desktop\Skills Site\Olethrus.github.io-main\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.sylvester\Desktop\Personal\Olethrus.github.io\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B319C-1987-48BF-B6E4-E555C0F7E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229BD683-C5A5-4B5C-B5ED-1073E3F85A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9888" yWindow="2304" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="706" activeTab="4" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="PL7" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
   <si>
     <t>Skill Name</t>
   </si>
@@ -60,6 +60,69 @@
   </si>
   <si>
     <t>Weight %</t>
+  </si>
+  <si>
+    <t>Configure Development workstation</t>
+  </si>
+  <si>
+    <t>Configure the VM with the developemnt software installed on it.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Need to complete</t>
+  </si>
+  <si>
+    <t>Connect to PLC</t>
+  </si>
+  <si>
+    <t>Upload/Download Code</t>
+  </si>
+  <si>
+    <t>Change IO Config</t>
+  </si>
+  <si>
+    <t>Change IO Mapping</t>
+  </si>
+  <si>
+    <t>Change register max</t>
+  </si>
+  <si>
+    <t>Setup comms protocol</t>
+  </si>
+  <si>
+    <t>Develop a DFB</t>
+  </si>
+  <si>
+    <t>Develop a DDT</t>
+  </si>
+  <si>
+    <t>Program standards in PLC Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade to a newer PLC </t>
+  </si>
+  <si>
+    <t>Go online with the PLC and make changes</t>
+  </si>
+  <si>
+    <t>Upload or download full code to PLC</t>
+  </si>
+  <si>
+    <t>Identify different file types associated with this plc</t>
+  </si>
+  <si>
+    <t>.pl7 .xxx</t>
+  </si>
+  <si>
+    <t>.sta .stu</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Make GSM Video</t>
   </si>
 </sst>
 </file>
@@ -411,13 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ED91DC-0B56-4060-8DA3-085497884A60}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -437,6 +504,88 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -447,10 +596,372 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B8F964-F896-413D-8EAD-9ED2DA37D286}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B66A6-4010-4B72-9270-26DAFDB8B0C8}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A88F71-B289-4C56-916C-A375DA0AEC68}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7F49E-2D46-44F5-BB87-F32193052CFA}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,109 +986,86 @@
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B66A6-4010-4B72-9270-26DAFDB8B0C8}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A88F71-B289-4C56-916C-A375DA0AEC68}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7F49E-2D46-44F5-BB87-F32193052CFA}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +1075,166 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EDDE2-66B2-4D37-AD9F-002DDE29D8E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B5D2C9-BBD5-469B-B667-D5C4712E3E0F}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/Schneider.xlsx
+++ b/Excel Data/Schneider.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.sylvester\Desktop\Personal\Olethrus.github.io\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229BD683-C5A5-4B5C-B5ED-1073E3F85A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ADCF6-BF8C-429E-B662-FB2B08ECD733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="706" activeTab="4" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="706" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
   </bookViews>
   <sheets>
     <sheet name="PL7" sheetId="1" r:id="rId1"/>
     <sheet name="Unity-Control Expert" sheetId="2" r:id="rId2"/>
     <sheet name="SoMachine-Machine Expert" sheetId="3" r:id="rId3"/>
     <sheet name="GSM" sheetId="4" r:id="rId4"/>
-    <sheet name="PE for Sys Platform" sheetId="5" r:id="rId5"/>
-    <sheet name="PE for Plant SCADA" sheetId="8" r:id="rId6"/>
+    <sheet name="PE for Plant SCADA" sheetId="8" r:id="rId5"/>
+    <sheet name="PE for Sys Platform" sheetId="5" r:id="rId6"/>
     <sheet name="Vijeo Designer" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>Skill Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Configure Development workstation</t>
   </si>
   <si>
-    <t>Configure the VM with the developemnt software installed on it.</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -113,16 +110,139 @@
     <t>Identify different file types associated with this plc</t>
   </si>
   <si>
-    <t>.pl7 .xxx</t>
-  </si>
-  <si>
-    <t>.sta .stu</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Make GSM Video</t>
+  </si>
+  <si>
+    <t>Change the IO Configuration for basic analog and discrete modules</t>
+  </si>
+  <si>
+    <t>Change the serial communication setup</t>
+  </si>
+  <si>
+    <t>Migrate to a M340 PLC</t>
+  </si>
+  <si>
+    <t>Change the IO Config on analog, discrete, hsc cards</t>
+  </si>
+  <si>
+    <t>Chang the DDT definition for this device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chang the max register and set the address type and mixed or topological </t>
+  </si>
+  <si>
+    <t>Setup the communication for the M340 setup in the network setup from project view. For the M580 setup through the navigation menu found from double clicking the NIC and going to network setup</t>
+  </si>
+  <si>
+    <t>Configure the VM with the development software installed on it.</t>
+  </si>
+  <si>
+    <t>Develop DFB for motor control, valve control, etc.</t>
+  </si>
+  <si>
+    <t>Develop a DDT that will link all the variables from the SE standards into one block</t>
+  </si>
+  <si>
+    <t>Program SE standards into a live demo project</t>
+  </si>
+  <si>
+    <t>Change the IO Config on analog, discrete</t>
+  </si>
+  <si>
+    <t>Change the alias mapping for IO cards</t>
+  </si>
+  <si>
+    <t>Setup ethernet and canbus communications</t>
+  </si>
+  <si>
+    <t>Program a simple GSM project</t>
+  </si>
+  <si>
+    <t>Made and displayed at GEAPS 2023</t>
+  </si>
+  <si>
+    <t>Configure Users in windows to work with GSM Software</t>
+  </si>
+  <si>
+    <t>Configure Process Expert Server</t>
+  </si>
+  <si>
+    <t>Configure Process Expert Client</t>
+  </si>
+  <si>
+    <t>FOR PLC AND SCADA SPECIFIC EXPERIENCE CHECK XXX AND YYY</t>
+  </si>
+  <si>
+    <t>Configure Security Certificates for Process Expert</t>
+  </si>
+  <si>
+    <t>Program a simple project with SE Standards</t>
+  </si>
+  <si>
+    <t>Research Software</t>
+  </si>
+  <si>
+    <t>Build a standards project in this HMI software and simulate it</t>
+  </si>
+  <si>
+    <t>Write advanced scripts in all supported languages</t>
+  </si>
+  <si>
+    <t>Deploy application to live site or R&amp;D Lab</t>
+  </si>
+  <si>
+    <t>Deployed multiple applications to multiple different plants</t>
+  </si>
+  <si>
+    <t>Develop a main screen</t>
+  </si>
+  <si>
+    <t>Developed a overview screen for each area of multiple plants</t>
+  </si>
+  <si>
+    <t>Develop a static popup</t>
+  </si>
+  <si>
+    <t>developed a General notification popup</t>
+  </si>
+  <si>
+    <t>Develop a dynamic popup</t>
+  </si>
+  <si>
+    <t>developed a motor control popup</t>
+  </si>
+  <si>
+    <t>Design and deploy a multi client stand alone system</t>
+  </si>
+  <si>
+    <t>Trending</t>
+  </si>
+  <si>
+    <t>Built trending with trend control</t>
+  </si>
+  <si>
+    <t>Publish application</t>
+  </si>
+  <si>
+    <t>Publish and deployed application to multiple sites</t>
+  </si>
+  <si>
+    <t>Build navigation bar</t>
+  </si>
+  <si>
+    <t>Need to Complete</t>
+  </si>
+  <si>
+    <t>stand alone systems deployed to multiple sites</t>
+  </si>
+  <si>
+    <t>Build a navigation bar using the master panel</t>
+  </si>
+  <si>
+    <t>Read manuals and document</t>
+  </si>
+  <si>
+    <t>Read the M340 manual, M580 , manual, networking, and general IO manual</t>
   </si>
 </sst>
 </file>
@@ -474,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ED91DC-0B56-4060-8DA3-085497884A60}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +606,7 @@
     <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,87 +625,337 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:L1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:L8" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Development workstation&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure the VM with the development software installed on it.&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Connect to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Go online with the PLC and make changes&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload/Download Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload or download full code to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change IO Config&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change the IO Configuration for basic analog and discrete modules&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup comms protocol&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change the serial communication setup&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upgrade to a newer PLC &lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Migrate to a M340 PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Identify different file types associated with this plc&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10" si="2">_xlfn.CONCAT("&lt;th&gt;",B10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10" si="3">_xlfn.CONCAT("&lt;th&gt;",C10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="4">_xlfn.CONCAT("&lt;th&gt;",D10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:L10" si="5">_xlfn.CONCAT("&lt;th&gt;",E10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12" si="6">_xlfn.CONCAT("&lt;th&gt;",B12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12" si="7">_xlfn.CONCAT("&lt;th&gt;",C12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">_xlfn.CONCAT("&lt;th&gt;",D12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:L12" si="9">_xlfn.CONCAT("&lt;th&gt;",E12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="10">_xlfn.CONCAT("&lt;tr&gt;",A13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Program standards in PLC Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13" si="11">_xlfn.CONCAT("&lt;tr&gt;",B13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="12">_xlfn.CONCAT("&lt;tr&gt;",C13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="13">_xlfn.CONCAT("&lt;tr&gt;",D13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:L13" si="14">_xlfn.CONCAT("&lt;tr&gt;",E13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B8F964-F896-413D-8EAD-9ED2DA37D286}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +982,7 @@
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,82 +1001,468 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:L1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:L8" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Development workstation&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure the VM with the development software installed on it.&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Connect to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Go online with the PLC and make changes&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload/Download Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload or download full code to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change IO Config&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change the IO Config on analog, discrete, hsc cards&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change IO Mapping&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Chang the DDT definition for this device&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change register max&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Chang the max register and set the address type and mixed or topological &lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup comms protocol&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup the communication for the M340 setup in the network setup from project view. For the M580 setup through the navigation menu found from double clicking the NIC and going to network setup&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G11" si="2">_xlfn.CONCAT("&lt;tr&gt;",A9,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Identify different file types associated with this plc&lt;/tr&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ref="H9:H11" si="3">_xlfn.CONCAT("&lt;tr&gt;",B9,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I11" si="4">_xlfn.CONCAT("&lt;tr&gt;",C9,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J11" si="5">_xlfn.CONCAT("&lt;tr&gt;",D9,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:L11" si="6">_xlfn.CONCAT("&lt;tr&gt;",E9,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Develop a DFB&lt;/tr&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;Develop DFB for motor control, valve control, etc.&lt;/tr&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Develop a DDT&lt;/tr&gt;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;Develop a DDT that will link all the variables from the SE standards into one block&lt;/tr&gt;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G13" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A13,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13" si="7">_xlfn.CONCAT("&lt;th&gt;",B13,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="8">_xlfn.CONCAT("&lt;th&gt;",C13,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="9">_xlfn.CONCAT("&lt;th&gt;",D13,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:L13" si="10">_xlfn.CONCAT("&lt;th&gt;",E13,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14" si="11">_xlfn.CONCAT("&lt;tr&gt;",A14,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Program standards in PLC Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14" si="12">_xlfn.CONCAT("&lt;tr&gt;",B14,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Program SE standards into a live demo project&lt;/tr&gt;</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ref="I14" si="13">_xlfn.CONCAT("&lt;tr&gt;",C14,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14" si="14">_xlfn.CONCAT("&lt;tr&gt;",D14,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ref="K14:L14" si="15">_xlfn.CONCAT("&lt;tr&gt;",E14,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="G16" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A16,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ref="H16" si="16">_xlfn.CONCAT("&lt;th&gt;",B16,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ref="I16" si="17">_xlfn.CONCAT("&lt;th&gt;",C16,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16" si="18">_xlfn.CONCAT("&lt;th&gt;",D16,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:L16" si="19">_xlfn.CONCAT("&lt;th&gt;",E16,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ref="G17" si="20">_xlfn.CONCAT("&lt;tr&gt;",A17,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Read manuals and document&lt;/tr&gt;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17" si="21">_xlfn.CONCAT("&lt;tr&gt;",B17,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Read the M340 manual, M580 , manual, networking, and general IO manual&lt;/tr&gt;</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ref="I17" si="22">_xlfn.CONCAT("&lt;tr&gt;",C17,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17" si="23">_xlfn.CONCAT("&lt;tr&gt;",D17,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17:L17" si="24">_xlfn.CONCAT("&lt;tr&gt;",E17,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04B66A6-4010-4B72-9270-26DAFDB8B0C8}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +1484,7 @@
     <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,88 +1503,337 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:L1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:L8" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Development workstation&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure the VM with the development software installed on it.&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Connect to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Go online with the PLC and make changes&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload/Download Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Upload or download full code to PLC&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change IO Config&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change the IO Config on analog, discrete&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change IO Mapping&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Change the alias mapping for IO cards&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup comms protocol&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup ethernet and canbus communications&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Identify different file types associated with this plc&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10" si="2">_xlfn.CONCAT("&lt;th&gt;",B10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10" si="3">_xlfn.CONCAT("&lt;th&gt;",C10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="4">_xlfn.CONCAT("&lt;th&gt;",D10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:L10" si="5">_xlfn.CONCAT("&lt;th&gt;",E10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12" si="6">_xlfn.CONCAT("&lt;th&gt;",B12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12" si="7">_xlfn.CONCAT("&lt;th&gt;",C12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">_xlfn.CONCAT("&lt;th&gt;",D12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:L12" si="9">_xlfn.CONCAT("&lt;th&gt;",E12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="10">_xlfn.CONCAT("&lt;tr&gt;",A13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Program standards in PLC Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13" si="11">_xlfn.CONCAT("&lt;tr&gt;",B13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="12">_xlfn.CONCAT("&lt;tr&gt;",C13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13" si="13">_xlfn.CONCAT("&lt;tr&gt;",D13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:L13" si="14">_xlfn.CONCAT("&lt;tr&gt;",E13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -838,117 +1843,304 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A88F71-B289-4C56-916C-A375DA0AEC68}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:L2" si="0">_xlfn.CONCAT("&lt;th&gt;",B2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:L6" si="1">_xlfn.CONCAT("&lt;tr&gt;",A3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Make GSM Video&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Made and displayed at GEAPS 2023&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Users in windows to work with GSM Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Server&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Client&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7" si="2">_xlfn.CONCAT("&lt;tr&gt;",A7,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Security Certificates for Process Expert&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7" si="3">_xlfn.CONCAT("&lt;tr&gt;",B7,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7" si="4">_xlfn.CONCAT("&lt;tr&gt;",C7,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7" si="5">_xlfn.CONCAT("&lt;tr&gt;",D7,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:L7" si="6">_xlfn.CONCAT("&lt;tr&gt;",E7,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A9,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ref="H9" si="7">_xlfn.CONCAT("&lt;th&gt;",B9,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9" si="8">_xlfn.CONCAT("&lt;th&gt;",C9,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9" si="9">_xlfn.CONCAT("&lt;th&gt;",D9,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:L9" si="10">_xlfn.CONCAT("&lt;th&gt;",E9,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10" si="11">_xlfn.CONCAT("&lt;tr&gt;",A10,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Program a simple GSM project&lt;/tr&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10" si="12">_xlfn.CONCAT("&lt;tr&gt;",B10,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10" si="13">_xlfn.CONCAT("&lt;tr&gt;",C10,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="14">_xlfn.CONCAT("&lt;tr&gt;",D10,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:L10" si="15">_xlfn.CONCAT("&lt;tr&gt;",E10,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12" si="16">_xlfn.CONCAT("&lt;th&gt;",B12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12" si="17">_xlfn.CONCAT("&lt;th&gt;",C12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="18">_xlfn.CONCAT("&lt;th&gt;",D12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:L12" si="19">_xlfn.CONCAT("&lt;th&gt;",E12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -957,198 +2149,541 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7F49E-2D46-44F5-BB87-F32193052CFA}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EDDE2-66B2-4D37-AD9F-002DDE29D8E3}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:L2" si="0">_xlfn.CONCAT("&lt;th&gt;",B2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:L9" si="1">_xlfn.CONCAT("&lt;tr&gt;",A3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Users in windows to work with GSM Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Server&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Client&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Security Certificates for Process Expert&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8" si="2">_xlfn.CONCAT("&lt;th&gt;",B8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8" si="3">_xlfn.CONCAT("&lt;th&gt;",C8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="4">_xlfn.CONCAT("&lt;th&gt;",D8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ref="K8:L8" si="5">_xlfn.CONCAT("&lt;th&gt;",E8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Program a simple project with SE Standards&lt;/tr&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-    </row>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ref="H11" si="6">_xlfn.CONCAT("&lt;th&gt;",B11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11" si="7">_xlfn.CONCAT("&lt;th&gt;",C11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ref="J11" si="8">_xlfn.CONCAT("&lt;th&gt;",D11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ref="K11:L11" si="9">_xlfn.CONCAT("&lt;th&gt;",E11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EDDE2-66B2-4D37-AD9F-002DDE29D8E3}">
-  <dimension ref="A2:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7F49E-2D46-44F5-BB87-F32193052CFA}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:L2" si="0">_xlfn.CONCAT("&lt;th&gt;",B2,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:L9" si="1">_xlfn.CONCAT("&lt;tr&gt;",A3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Users in windows to work with GSM Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Server&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Process Expert Client&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure Security Certificates for Process Expert&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8" si="2">_xlfn.CONCAT("&lt;th&gt;",B8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8" si="3">_xlfn.CONCAT("&lt;th&gt;",C8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="4">_xlfn.CONCAT("&lt;th&gt;",D8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ref="K8:L8" si="5">_xlfn.CONCAT("&lt;th&gt;",E8,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Program a simple project with SE Standards&lt;/tr&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to complete&lt;/th&gt;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ref="H11" si="6">_xlfn.CONCAT("&lt;th&gt;",B11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11" si="7">_xlfn.CONCAT("&lt;th&gt;",C11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ref="J11" si="8">_xlfn.CONCAT("&lt;th&gt;",D11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ref="K11:L11" si="9">_xlfn.CONCAT("&lt;th&gt;",E11,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1158,80 +2693,493 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B5D2C9-BBD5-469B-B667-D5C4712E3E0F}">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:L1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Documents&lt;/th&gt;</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Industry Example Experience &lt;/th&gt;</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Weight %&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:L8" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Configure Development workstation&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Configure the VM with the development software installed on it.&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Deploy application to live site or R&amp;D Lab&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Deployed multiple applications to multiple different plants&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Develop a main screen&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Developed a overview screen for each area of multiple plants&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Develop a static popup&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;developed a General notification popup&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Design and deploy a multi client stand alone system&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;stand alone systems deployed to multiple sites&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Publish application&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Publish and deployed application to multiple sites&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Build navigation bar&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Build a navigation bar using the master panel&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;In Progress&lt;/th&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10" si="2">_xlfn.CONCAT("&lt;th&gt;",B10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10" si="3">_xlfn.CONCAT("&lt;th&gt;",C10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="4">_xlfn.CONCAT("&lt;th&gt;",D10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:L10" si="5">_xlfn.CONCAT("&lt;th&gt;",E10,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Need to Complete&lt;/th&gt;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12" si="6">_xlfn.CONCAT("&lt;th&gt;",B12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12" si="7">_xlfn.CONCAT("&lt;th&gt;",C12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">_xlfn.CONCAT("&lt;th&gt;",D12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:L12" si="9">_xlfn.CONCAT("&lt;th&gt;",E12,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;th&gt;&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G17" si="10">_xlfn.CONCAT("&lt;tr&gt;",A13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Research Software&lt;/tr&gt;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H17" si="11">_xlfn.CONCAT("&lt;tr&gt;",B13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I17" si="12">_xlfn.CONCAT("&lt;tr&gt;",C13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J17" si="13">_xlfn.CONCAT("&lt;tr&gt;",D13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:L17" si="14">_xlfn.CONCAT("&lt;tr&gt;",E13,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;tr&gt;Build a standards project in this HMI software and simulate it&lt;/tr&gt;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;tr&gt;Write advanced scripts in all supported languages&lt;/tr&gt;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;tr&gt;Develop a dynamic popup&lt;/tr&gt;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;developed a motor control popup&lt;/tr&gt;</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="10"/>
+        <v>&lt;tr&gt;Trending&lt;/tr&gt;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="11"/>
+        <v>&lt;tr&gt;Built trending with trend control&lt;/tr&gt;</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
